--- a/PYPL_Model.xlsx
+++ b/PYPL_Model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E997A8-4DA3-4963-AD72-28571B76AE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F40303-5849-45C8-B505-C8B19542B5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7625,9 +7625,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -8089,24 +8089,24 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -8128,10 +8128,10 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -8155,23 +8155,23 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -14849,7 +14849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -14882,10 +14882,10 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="81">
+      <c r="C5" s="80">
         <v>69.27</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="82" t="s">
         <v>2104</v>
       </c>
     </row>
@@ -14893,7 +14893,7 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="79">
         <v>935.65</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -14904,7 +14904,7 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="81">
         <f>C5*C6</f>
         <v>64812.475499999993</v>
       </c>
@@ -14913,7 +14913,7 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="81">
         <f>8995+1760</f>
         <v>10755</v>
       </c>
@@ -14925,7 +14925,7 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="81">
         <v>11276</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -14936,7 +14936,7 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="81">
         <f>C7-C8+C9</f>
         <v>65333.475499999993</v>
       </c>
@@ -15430,7 +15430,7 @@
   <dimension ref="A1:EA105"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AK21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AK24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="A43" sqref="A43:XFD43"/>
@@ -24797,8 +24797,8 @@
       <c r="AX68" s="63"/>
       <c r="AY68" s="63"/>
       <c r="AZ68" s="63"/>
-      <c r="BA68" s="79"/>
-      <c r="BB68" s="79"/>
+      <c r="BA68" s="83"/>
+      <c r="BB68" s="83"/>
       <c r="BC68" s="67"/>
       <c r="BM68" s="1">
         <v>252</v>
@@ -24819,11 +24819,11 @@
       <c r="BV68" s="63"/>
       <c r="BW68" s="63"/>
       <c r="BX68" s="63"/>
-      <c r="BY68" s="79" t="str" cm="1">
+      <c r="BY68" s="83" t="str" cm="1">
         <f t="array" ref="BY68">_xlfn.IFS(BZ67&gt;=25%,"Strong Buy",BZ67&gt;=10.00001%,"Buy",AND(BZ67&lt;=10%,BZ67&gt;=-4.9999%),"Hold",AND(BZ67&lt;=-5%,BZ67&gt;=-14.999999%),"Sell",BZ67&lt;=-15%,"Strong Sell")</f>
         <v>Strong Buy</v>
       </c>
-      <c r="BZ68" s="79"/>
+      <c r="BZ68" s="83"/>
       <c r="CA68" s="67"/>
     </row>
     <row r="69" spans="2:130" ht="15" customHeight="1">
@@ -29122,7 +29122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714FD4A5-C172-4508-BDD9-9132B91E029B}">
   <dimension ref="A1:CA2006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H174" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y132" sqref="Y132"/>
     </sheetView>
   </sheetViews>
